--- a/src/test/test automation.xlsx
+++ b/src/test/test automation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="272">
   <si>
     <t>Test ID</t>
   </si>
@@ -447,6 +447,399 @@
   </si>
   <si>
     <t>Quote window displayed</t>
+  </si>
+  <si>
+    <t>TC015</t>
+  </si>
+  <si>
+    <t>Click on insurance button</t>
+  </si>
+  <si>
+    <t>insurance widow pops up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insurance window displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is able to get a term life insurance </t>
+  </si>
+  <si>
+    <t>click on term life button</t>
+  </si>
+  <si>
+    <t>term life page insurance opens</t>
+  </si>
+  <si>
+    <t>term life page displayed</t>
+  </si>
+  <si>
+    <t>select a state from drop down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">state selected </t>
+  </si>
+  <si>
+    <t>state has been selected</t>
+  </si>
+  <si>
+    <t>click on start a quote</t>
+  </si>
+  <si>
+    <t>page start quote opens</t>
+  </si>
+  <si>
+    <t>page start quote displayed</t>
+  </si>
+  <si>
+    <t>click yes button</t>
+  </si>
+  <si>
+    <t>birthday requirement page opens</t>
+  </si>
+  <si>
+    <t>birthday requirement page displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add birthday </t>
+  </si>
+  <si>
+    <t>birthday added</t>
+  </si>
+  <si>
+    <t>TC016</t>
+  </si>
+  <si>
+    <t>User is able to get a home insurance</t>
+  </si>
+  <si>
+    <t>click on Home button</t>
+  </si>
+  <si>
+    <t>page home insurance opens</t>
+  </si>
+  <si>
+    <t>page home insurance displayed</t>
+  </si>
+  <si>
+    <t>enter zip code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zip code entred </t>
+  </si>
+  <si>
+    <t>zip code entred</t>
+  </si>
+  <si>
+    <t>click on start a qoute</t>
+  </si>
+  <si>
+    <t>Home owners opens</t>
+  </si>
+  <si>
+    <t>Home owners displayed</t>
+  </si>
+  <si>
+    <t>User is able to open a join accounts</t>
+  </si>
+  <si>
+    <t>Click on joint accounts</t>
+  </si>
+  <si>
+    <t>Click on mutual funds</t>
+  </si>
+  <si>
+    <t>joint account page opens</t>
+  </si>
+  <si>
+    <t>joint account displayed</t>
+  </si>
+  <si>
+    <t>mutual account page opens</t>
+  </si>
+  <si>
+    <t>mutual account page displayed</t>
+  </si>
+  <si>
+    <t>User is able to search agencies locations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on search </t>
+  </si>
+  <si>
+    <t>search window pops up</t>
+  </si>
+  <si>
+    <t>search window displayed</t>
+  </si>
+  <si>
+    <t>type in state farm agencies</t>
+  </si>
+  <si>
+    <t>liste of agencies opens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liste of agencies displayed </t>
+  </si>
+  <si>
+    <t>TC017</t>
+  </si>
+  <si>
+    <t>TC018</t>
+  </si>
+  <si>
+    <t>TC019</t>
+  </si>
+  <si>
+    <t>User is about to get an insurance id card</t>
+  </si>
+  <si>
+    <t>Click on get insurance id card</t>
+  </si>
+  <si>
+    <t>id card page opens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id card page displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter phone number </t>
+  </si>
+  <si>
+    <t>enter DOB</t>
+  </si>
+  <si>
+    <t>DOB entred</t>
+  </si>
+  <si>
+    <t>Click on continue</t>
+  </si>
+  <si>
+    <t>Error message "document unavailable  pops up</t>
+  </si>
+  <si>
+    <t>TC020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is able to change the language </t>
+  </si>
+  <si>
+    <t>Click on spanish</t>
+  </si>
+  <si>
+    <t>home page in spanish opens</t>
+  </si>
+  <si>
+    <t>home page in spanish displayed</t>
+  </si>
+  <si>
+    <t>TC021</t>
+  </si>
+  <si>
+    <t>Apply for a credit card</t>
+  </si>
+  <si>
+    <t>Click on credit card function</t>
+  </si>
+  <si>
+    <t>credit card page opens</t>
+  </si>
+  <si>
+    <t>credit card page displayed</t>
+  </si>
+  <si>
+    <t>Click on learn more</t>
+  </si>
+  <si>
+    <t>window continue pops up</t>
+  </si>
+  <si>
+    <t>window continue displayed</t>
+  </si>
+  <si>
+    <t>a new page displayed</t>
+  </si>
+  <si>
+    <t>a new page opens</t>
+  </si>
+  <si>
+    <t>Click on apply now</t>
+  </si>
+  <si>
+    <t>page login opens</t>
+  </si>
+  <si>
+    <t>page login displayed</t>
+  </si>
+  <si>
+    <t>TC022</t>
+  </si>
+  <si>
+    <t>click on Banking funtion</t>
+  </si>
+  <si>
+    <t>click on home loans</t>
+  </si>
+  <si>
+    <t>Get a home loan</t>
+  </si>
+  <si>
+    <t>Home loans opens</t>
+  </si>
+  <si>
+    <t>Home loans displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get a roadside assistance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User clcik on roadside assistance </t>
+  </si>
+  <si>
+    <t>road side assistance opens</t>
+  </si>
+  <si>
+    <t>road side assistance displayed</t>
+  </si>
+  <si>
+    <t>Click on get road assistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explore state farm envirement </t>
+  </si>
+  <si>
+    <t>click on explore state farm</t>
+  </si>
+  <si>
+    <t>explore state farm page opens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explore state farm page displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on envirement </t>
+  </si>
+  <si>
+    <t>state farm envirement opens</t>
+  </si>
+  <si>
+    <t>Statefarm envirement  displayed</t>
+  </si>
+  <si>
+    <t>explore state farm community</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on community </t>
+  </si>
+  <si>
+    <t>state farm community opens</t>
+  </si>
+  <si>
+    <t>Statefarm community  displayed</t>
+  </si>
+  <si>
+    <t>TC023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explore state farm media </t>
+  </si>
+  <si>
+    <t>click on media</t>
+  </si>
+  <si>
+    <t>state farm media opens</t>
+  </si>
+  <si>
+    <t>Statefarm media  displayed</t>
+  </si>
+  <si>
+    <t>click on archive</t>
+  </si>
+  <si>
+    <t>state farm archive opens</t>
+  </si>
+  <si>
+    <t>Statefarm archive  displayed</t>
+  </si>
+  <si>
+    <t>TC024</t>
+  </si>
+  <si>
+    <t>explore state farm archive</t>
+  </si>
+  <si>
+    <t>TC025</t>
+  </si>
+  <si>
+    <t>User needs help to find his user id</t>
+  </si>
+  <si>
+    <t>User click on help</t>
+  </si>
+  <si>
+    <t>help page opens</t>
+  </si>
+  <si>
+    <t>Help page displayed</t>
+  </si>
+  <si>
+    <t>Click on forget user id</t>
+  </si>
+  <si>
+    <t>page find my account opens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">page find accout displayed </t>
+  </si>
+  <si>
+    <t>enter email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email entred </t>
+  </si>
+  <si>
+    <t xml:space="preserve">select text option </t>
+  </si>
+  <si>
+    <t xml:space="preserve">text option selected </t>
+  </si>
+  <si>
+    <t>text option has been selected</t>
+  </si>
+  <si>
+    <t>click on submit button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">page accout found displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">page accout found opens </t>
+  </si>
+  <si>
+    <t>TC026</t>
+  </si>
+  <si>
+    <t>Check security and fraud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User click on security and fraud </t>
+  </si>
+  <si>
+    <t xml:space="preserve">page security opens </t>
+  </si>
+  <si>
+    <t xml:space="preserve">page security displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on alert </t>
+  </si>
+  <si>
+    <t>alert page settings opens</t>
+  </si>
+  <si>
+    <t>alert page settings displayed</t>
+  </si>
+  <si>
+    <t>TC027</t>
   </si>
 </sst>
 </file>
@@ -771,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="A177" sqref="A177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -782,8 +1175,8 @@
     <col min="1" max="1" width="6.90625" style="1" customWidth="1"/>
     <col min="2" max="2" width="49.08984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="40" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.36328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.90625" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.90625" style="1"/>
     <col min="7" max="7" width="15.7265625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="10.90625" style="1"/>
@@ -1667,7 +2060,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C81" s="1" t="s">
         <v>15</v>
       </c>
@@ -1678,7 +2071,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C82" s="1" t="s">
         <v>30</v>
       </c>
@@ -1689,7 +2082,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C83" s="1" t="s">
         <v>133</v>
       </c>
@@ -1701,6 +2094,948 @@
       </c>
       <c r="F83" s="1" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C87" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C88" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C89" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C90" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C91" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C92" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C96" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C97" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C98" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C99" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C103" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C104" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C107" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C108" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C109" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C113" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C114" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C115" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C116" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C120" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C123" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C124" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C125" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C126" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C127" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C128" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C131" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C132" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C133" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C136" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C137" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C138" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C139" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C142" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C143" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C144" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C147" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C148" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C149" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C152" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C153" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C154" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C157" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C158" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C159" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C162" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C163" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C164" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C165" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C166" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C167" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C168" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C169" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C172" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C173" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C174" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C175" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A177" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
